--- a/analyses/DAPC/batch8/filtereD_all_dapc_coordinates.xlsx
+++ b/analyses/DAPC/batch8/filtereD_all_dapc_coordinates.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="309">
   <si>
     <t>LD1</t>
   </si>
@@ -916,13 +916,49 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>TL(cm)</t>
+  </si>
+  <si>
+    <t>BL(cm)</t>
+  </si>
+  <si>
+    <t>BW(g)</t>
+  </si>
+  <si>
+    <t>SEX</t>
+  </si>
+  <si>
+    <t>Mat</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>GSI</t>
+  </si>
+  <si>
+    <t>Otolith?</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>noooooooo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -944,6 +980,32 @@
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -959,7 +1021,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1013,11 +1075,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1031,11 +1164,60 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1051,6 +1233,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>201386</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>84664</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>267892</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>21025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16161053" y="3418414"/>
+          <a:ext cx="3135672" cy="2412861"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>290487</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>37810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>243417</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>74083</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19319320" y="3371560"/>
+          <a:ext cx="3265514" cy="2512773"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>440242</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>137584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>222249</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13087325" y="3471334"/>
+          <a:ext cx="3094591" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1316,10 +1635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O265"/>
+  <dimension ref="A1:AF265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R8" sqref="R3:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,9 +1652,11 @@
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.7109375" customWidth="1"/>
+    <col min="15" max="15" width="31.28515625" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" t="s">
         <v>0</v>
@@ -1358,14 +1679,14 @@
       <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+    </row>
+    <row r="2" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1393,20 +1714,47 @@
       <c r="I2">
         <v>0.49094229</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1446,8 +1794,32 @@
       <c r="O3" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" s="12">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>37</v>
+      </c>
+      <c r="R3" s="12">
+        <v>1740.2</v>
+      </c>
+      <c r="S3" s="12">
+        <v>2</v>
+      </c>
+      <c r="T3" s="12">
+        <v>193.5</v>
+      </c>
+      <c r="U3" s="12">
+        <v>107.3</v>
+      </c>
+      <c r="V3" s="13">
+        <v>11.12</v>
+      </c>
+      <c r="W3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1487,8 +1859,32 @@
       <c r="O4" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" s="12">
+        <v>74</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>68</v>
+      </c>
+      <c r="R4" s="12">
+        <v>4300</v>
+      </c>
+      <c r="S4" s="12">
+        <v>2</v>
+      </c>
+      <c r="T4" s="12">
+        <v>475.3</v>
+      </c>
+      <c r="U4" s="12">
+        <v>162.80000000000001</v>
+      </c>
+      <c r="V4" s="13">
+        <v>11.05</v>
+      </c>
+      <c r="W4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1528,8 +1924,30 @@
       <c r="O5" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P5" s="12">
+        <v>61.8</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>57.7</v>
+      </c>
+      <c r="R5" s="12">
+        <v>2700</v>
+      </c>
+      <c r="S5" s="12">
+        <v>2</v>
+      </c>
+      <c r="T5" s="14"/>
+      <c r="U5" s="15">
+        <v>599.5</v>
+      </c>
+      <c r="V5" s="16">
+        <v>22.204000000000001</v>
+      </c>
+      <c r="W5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1569,8 +1987,30 @@
       <c r="O6" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P6" s="12">
+        <v>61.5</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>57.4</v>
+      </c>
+      <c r="R6" s="12">
+        <v>1800</v>
+      </c>
+      <c r="S6" s="12">
+        <v>2</v>
+      </c>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12">
+        <v>90.5</v>
+      </c>
+      <c r="V6" s="13">
+        <v>5.0277777779999999</v>
+      </c>
+      <c r="W6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1610,8 +2050,30 @@
       <c r="O7" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" s="17">
+        <v>55.5</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>50.9</v>
+      </c>
+      <c r="R7" s="17">
+        <v>1500</v>
+      </c>
+      <c r="S7" s="17">
+        <v>2</v>
+      </c>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17">
+        <v>63.5</v>
+      </c>
+      <c r="V7" s="18">
+        <v>4.234</v>
+      </c>
+      <c r="W7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1651,8 +2113,30 @@
       <c r="O8" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" s="21">
+        <v>63</v>
+      </c>
+      <c r="Q8" s="21">
+        <v>58.6</v>
+      </c>
+      <c r="R8" s="21">
+        <v>2500</v>
+      </c>
+      <c r="S8" s="21">
+        <v>2</v>
+      </c>
+      <c r="T8" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="U8" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="V8" s="22"/>
+      <c r="W8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1692,8 +2176,30 @@
       <c r="O9" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" s="23">
+        <v>68.2</v>
+      </c>
+      <c r="Q9" s="23">
+        <v>63.6</v>
+      </c>
+      <c r="R9" s="23">
+        <v>3481.2</v>
+      </c>
+      <c r="S9" s="23">
+        <v>2</v>
+      </c>
+      <c r="T9" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="U9" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="V9" s="24"/>
+      <c r="W9" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1733,8 +2239,22 @@
       <c r="O10" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" s="25">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="25">
+        <v>36</v>
+      </c>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1774,8 +2294,22 @@
       <c r="O11" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11" s="25">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="25">
+        <v>35</v>
+      </c>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="26" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1815,8 +2349,20 @@
       <c r="O12" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12" s="19">
+        <v>50</v>
+      </c>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="19">
+        <v>42.5</v>
+      </c>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="W12" s="26" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1845,7 +2391,7 @@
         <v>1.2782359599999999</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1874,7 +2420,7 @@
         <v>0.16436095000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1903,7 +2449,7 @@
         <v>-0.56142930999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5228,10 +5774,10 @@
       <c r="B134" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C134" s="9">
+      <c r="C134" s="8">
         <v>5.8318675000000004</v>
       </c>
-      <c r="D134" s="9">
+      <c r="D134" s="8">
         <v>4.0654191600000003</v>
       </c>
       <c r="E134">
@@ -9161,6 +9707,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/analyses/DAPC/batch8/filtereD_all_dapc_coordinates.xlsx
+++ b/analyses/DAPC/batch8/filtereD_all_dapc_coordinates.xlsx
@@ -958,7 +958,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1006,6 +1006,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1021,7 +1029,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1127,9 +1135,67 @@
       <right style="medium">
         <color rgb="FFCCCCCC"/>
       </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1140,17 +1206,29 @@
       <right style="medium">
         <color rgb="FFCCCCCC"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1164,11 +1242,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1196,16 +1270,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1217,9 +1285,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1638,7 +1732,7 @@
   <dimension ref="A1:AF265"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R8" sqref="R3:R8"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,7 +1750,7 @@
     <col min="23" max="23" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
       <c r="C1" t="s">
         <v>0</v>
@@ -1679,14 +1773,22 @@
       <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-    </row>
-    <row r="2" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="23"/>
+    </row>
+    <row r="2" spans="1:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1714,40 +1816,40 @@
       <c r="I2">
         <v>0.49094229</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="26" t="s">
         <v>305</v>
       </c>
       <c r="AF2" t="s">
@@ -1782,40 +1884,40 @@
       <c r="I3">
         <v>0.30195283000000001</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="10">
         <v>41</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="10">
         <v>37</v>
       </c>
-      <c r="R3" s="12">
+      <c r="R3" s="10">
         <v>1740.2</v>
       </c>
-      <c r="S3" s="12">
+      <c r="S3" s="10">
         <v>2</v>
       </c>
-      <c r="T3" s="12">
+      <c r="T3" s="10">
         <v>193.5</v>
       </c>
-      <c r="U3" s="12">
+      <c r="U3" s="10">
         <v>107.3</v>
       </c>
-      <c r="V3" s="13">
+      <c r="V3" s="11">
         <v>11.12</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="28" t="s">
         <v>306</v>
       </c>
     </row>
@@ -1847,40 +1949,40 @@
       <c r="I4">
         <v>0.18742227</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="10">
         <v>74</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="10">
         <v>68</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="10">
         <v>4300</v>
       </c>
-      <c r="S4" s="12">
+      <c r="S4" s="10">
         <v>2</v>
       </c>
-      <c r="T4" s="12">
+      <c r="T4" s="10">
         <v>475.3</v>
       </c>
-      <c r="U4" s="12">
+      <c r="U4" s="10">
         <v>162.80000000000001</v>
       </c>
-      <c r="V4" s="13">
+      <c r="V4" s="11">
         <v>11.05</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" s="28" t="s">
         <v>306</v>
       </c>
     </row>
@@ -1912,38 +2014,38 @@
       <c r="I5">
         <v>0.44703847000000002</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="10">
         <v>61.8</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="10">
         <v>57.7</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="10">
         <v>2700</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="10">
         <v>2</v>
       </c>
-      <c r="T5" s="14"/>
-      <c r="U5" s="15">
+      <c r="T5" s="12"/>
+      <c r="U5" s="13">
         <v>599.5</v>
       </c>
-      <c r="V5" s="16">
+      <c r="V5" s="14">
         <v>22.204000000000001</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" s="28" t="s">
         <v>306</v>
       </c>
     </row>
@@ -1975,38 +2077,38 @@
       <c r="I6">
         <v>1.5670418100000001</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="10">
         <v>61.5</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="10">
         <v>57.4</v>
       </c>
-      <c r="R6" s="12">
+      <c r="R6" s="10">
         <v>1800</v>
       </c>
-      <c r="S6" s="12">
+      <c r="S6" s="10">
         <v>2</v>
       </c>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12">
+      <c r="T6" s="10"/>
+      <c r="U6" s="10">
         <v>90.5</v>
       </c>
-      <c r="V6" s="13">
+      <c r="V6" s="11">
         <v>5.0277777779999999</v>
       </c>
-      <c r="W6" t="s">
+      <c r="W6" s="28" t="s">
         <v>306</v>
       </c>
     </row>
@@ -2038,38 +2140,38 @@
       <c r="I7">
         <v>0.72228817000000001</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P7" s="17">
+      <c r="P7" s="15">
         <v>55.5</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="Q7" s="15">
         <v>50.9</v>
       </c>
-      <c r="R7" s="17">
+      <c r="R7" s="15">
         <v>1500</v>
       </c>
-      <c r="S7" s="17">
+      <c r="S7" s="15">
         <v>2</v>
       </c>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17">
+      <c r="T7" s="15"/>
+      <c r="U7" s="15">
         <v>63.5</v>
       </c>
-      <c r="V7" s="18">
+      <c r="V7" s="16">
         <v>4.234</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W7" s="28" t="s">
         <v>306</v>
       </c>
     </row>
@@ -2101,38 +2203,38 @@
       <c r="I8">
         <v>1.04381485</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P8" s="21">
+      <c r="P8" s="17">
         <v>63</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="Q8" s="17">
         <v>58.6</v>
       </c>
-      <c r="R8" s="21">
+      <c r="R8" s="17">
         <v>2500</v>
       </c>
-      <c r="S8" s="21">
+      <c r="S8" s="17">
         <v>2</v>
       </c>
-      <c r="T8" s="21" t="s">
+      <c r="T8" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="U8" s="21" t="s">
+      <c r="U8" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="V8" s="22"/>
-      <c r="W8" t="s">
+      <c r="V8" s="18"/>
+      <c r="W8" s="28" t="s">
         <v>306</v>
       </c>
     </row>
@@ -2164,38 +2266,38 @@
       <c r="I9">
         <v>2.0926075700000002</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P9" s="23">
+      <c r="P9" s="19">
         <v>68.2</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="Q9" s="19">
         <v>63.6</v>
       </c>
-      <c r="R9" s="23">
+      <c r="R9" s="19">
         <v>3481.2</v>
       </c>
-      <c r="S9" s="23">
+      <c r="S9" s="19">
         <v>2</v>
       </c>
-      <c r="T9" s="23" t="s">
+      <c r="T9" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="U9" s="23" t="s">
+      <c r="U9" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="V9" s="24"/>
-      <c r="W9" s="8" t="s">
+      <c r="V9" s="20"/>
+      <c r="W9" s="28" t="s">
         <v>306</v>
       </c>
     </row>
@@ -2227,30 +2329,30 @@
       <c r="I10">
         <v>1.8295954699999999</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P10" s="25">
+      <c r="P10" s="21">
         <v>39</v>
       </c>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="25">
+      <c r="Q10" s="20"/>
+      <c r="R10" s="21">
         <v>36</v>
       </c>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24" t="s">
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="30" t="s">
         <v>308</v>
       </c>
     </row>
@@ -2282,30 +2384,30 @@
       <c r="I11">
         <v>0.77679838999999995</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P11" s="25">
+      <c r="P11" s="21">
         <v>41</v>
       </c>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="25">
+      <c r="Q11" s="20"/>
+      <c r="R11" s="21">
         <v>35</v>
       </c>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="26" t="s">
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="31" t="s">
         <v>308</v>
       </c>
     </row>
@@ -2337,28 +2439,30 @@
       <c r="I12">
         <v>0.65956873999999999</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="P12" s="19">
+      <c r="P12" s="34">
         <v>50</v>
       </c>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="19">
+      <c r="Q12" s="35"/>
+      <c r="R12" s="34">
         <v>42.5</v>
       </c>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="W12" s="26" t="s">
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="36" t="s">
         <v>308</v>
       </c>
     </row>
@@ -5774,10 +5878,10 @@
       <c r="B134" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C134" s="8">
+      <c r="C134" s="7">
         <v>5.8318675000000004</v>
       </c>
-      <c r="D134" s="8">
+      <c r="D134" s="7">
         <v>4.0654191600000003</v>
       </c>
       <c r="E134">

--- a/analyses/DAPC/batch8/filtereD_all_dapc_coordinates.xlsx
+++ b/analyses/DAPC/batch8/filtereD_all_dapc_coordinates.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="312">
   <si>
     <t>LD1</t>
   </si>
@@ -912,9 +912,6 @@
     <t>Flagged?</t>
   </si>
   <si>
-    <t>ML Relate: half-sib with JB07_21.1</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -952,6 +949,18 @@
   </si>
   <si>
     <t>noooooooo</t>
+  </si>
+  <si>
+    <t>No. but DNA part degraded</t>
+  </si>
+  <si>
+    <t>ML Relate: half-sib with JB07_21.1. DNA part degraded</t>
+  </si>
+  <si>
+    <t>No. but next to BOR07_10 on the plate</t>
+  </si>
+  <si>
+    <t>proportion of missing loci</t>
   </si>
 </sst>
 </file>
@@ -1340,7 +1349,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>267892</xdr:colOff>
+      <xdr:colOff>267891</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>21025</xdr:rowOff>
     </xdr:to>
@@ -1384,7 +1393,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>243417</xdr:colOff>
+      <xdr:colOff>243418</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>74083</xdr:rowOff>
     </xdr:to>
@@ -1427,8 +1436,8 @@
       <xdr:rowOff>137584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>222249</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>264583</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>42334</xdr:rowOff>
     </xdr:to>
@@ -1732,7 +1741,7 @@
   <dimension ref="A1:AF265"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1746,7 +1755,7 @@
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.7109375" customWidth="1"/>
-    <col min="15" max="15" width="31.28515625" customWidth="1"/>
+    <col min="15" max="15" width="49" customWidth="1"/>
     <col min="23" max="23" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1829,31 +1838,31 @@
         <v>294</v>
       </c>
       <c r="P2" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q2" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="W2" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="W2" s="26" t="s">
-        <v>305</v>
-      </c>
       <c r="AF2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1894,7 +1903,7 @@
         <v>157</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P3" s="10">
         <v>41</v>
@@ -1918,7 +1927,7 @@
         <v>11.12</v>
       </c>
       <c r="W3" s="28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1959,7 +1968,7 @@
         <v>157</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P4" s="10">
         <v>74</v>
@@ -1983,7 +1992,7 @@
         <v>11.05</v>
       </c>
       <c r="W4" s="28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2024,7 +2033,7 @@
         <v>157</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P5" s="10">
         <v>61.8</v>
@@ -2046,7 +2055,7 @@
         <v>22.204000000000001</v>
       </c>
       <c r="W5" s="28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2087,7 +2096,7 @@
         <v>157</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P6" s="10">
         <v>61.5</v>
@@ -2109,7 +2118,7 @@
         <v>5.0277777779999999</v>
       </c>
       <c r="W6" s="28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2150,7 +2159,7 @@
         <v>157</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P7" s="15">
         <v>55.5</v>
@@ -2172,7 +2181,7 @@
         <v>4.234</v>
       </c>
       <c r="W7" s="28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
@@ -2213,7 +2222,7 @@
         <v>157</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P8" s="17">
         <v>63</v>
@@ -2228,14 +2237,14 @@
         <v>2</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="U8" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="V8" s="18"/>
       <c r="W8" s="28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
@@ -2276,7 +2285,7 @@
         <v>157</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P9" s="19">
         <v>68.2</v>
@@ -2291,14 +2300,14 @@
         <v>2</v>
       </c>
       <c r="T9" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="U9" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="V9" s="20"/>
       <c r="W9" s="28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2339,7 +2348,7 @@
         <v>157</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="P10" s="21">
         <v>39</v>
@@ -2353,7 +2362,10 @@
       <c r="U10" s="20"/>
       <c r="V10" s="20"/>
       <c r="W10" s="30" t="s">
-        <v>308</v>
+        <v>307</v>
+      </c>
+      <c r="X10" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
@@ -2394,7 +2406,7 @@
         <v>157</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="P11" s="21">
         <v>41</v>
@@ -2408,7 +2420,7 @@
       <c r="U11" s="20"/>
       <c r="V11" s="7"/>
       <c r="W11" s="31" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2449,7 +2461,7 @@
         <v>292</v>
       </c>
       <c r="O12" s="33" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="P12" s="34">
         <v>50</v>
@@ -2463,7 +2475,7 @@
       <c r="U12" s="33"/>
       <c r="V12" s="33"/>
       <c r="W12" s="36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
